--- a/src/data/profiles/xlsx/bluff/profile 21-19 graph.xlsx
+++ b/src/data/profiles/xlsx/bluff/profile 21-19 graph.xlsx
@@ -1824,11 +1824,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="73747249"/>
-        <c:axId val="12237984"/>
+        <c:axId val="73616943"/>
+        <c:axId val="80982360"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="73747249"/>
+        <c:axId val="73616943"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1863,12 +1863,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="12237984"/>
+        <c:crossAx val="80982360"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="12237984"/>
+        <c:axId val="80982360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1912,7 +1912,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="73747249"/>
+        <c:crossAx val="73616943"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
